--- a/medicine/Enfance/Daniel_Rocher/Daniel_Rocher.xlsx
+++ b/medicine/Enfance/Daniel_Rocher/Daniel_Rocher.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Daniel Rocher est un écrivain français, né le 22 avril 1947[1] à Cherrueix, en Bretagne, et mort le 10 juin 2016[2] à Antony[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel Rocher est un écrivain français, né le 22 avril 1947 à Cherrueix, en Bretagne, et mort le 10 juin 2016 à Antony.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À Paris, il suit des cours de Droit, puis devient comédien et avocat. 
 Il est l’auteur de romans, pièces de théâtre, contes pour enfants. Transit, son premier roman, paraît aux éditions Gallimard en 1972. Le Voyage de monsieur Raminet (2000) raconte sur un mode humoristique la folle équipée de Félix Raminet, professeur de Droit nouvellement retraité, qui entend se servir sans retenue de son tout nouveau permis de conduire.  
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Transit, Gallimard, 1972
 Le Chat qui voulait aller à Saint-Malo, Ouest-France, 1992
